--- a/data/ODT_data.xlsx
+++ b/data/ODT_data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Dropbox\ODT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Dropbox\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEC6192-E5A5-41FC-B4F8-063CBE795B0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BC85D7-4568-4439-9FC4-C63FDBD32549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="4478" windowWidth="16875" windowHeight="10522" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot exp.1" sheetId="1" r:id="rId1"/>
     <sheet name="exp.1" sheetId="2" r:id="rId2"/>
+    <sheet name="pilot exp.2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">exp.1!$A$1:$V$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">exp.1!$A$1:$Y$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,6 +27,11 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1332,8 +1338,765 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mika Asaba</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C502DDD9-108C-154B-877C-F602692ED7C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>add 1 for every child tested in total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{18CB1BB0-4F2D-C340-9E83-15633A209676}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ODT_YYMMDD_## (number child for that day)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EACD643D-1121-F949-B5A3-023C21E5891E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>find on redcap database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C4683002-A8B5-744E-9BF4-09FCC90C8D05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>find on bing database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FE0CDF92-B80C-1B4B-890E-913E69A26005}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>use formula in cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9FE4AE1D-4FBD-504E-A027-0E397F0DCE67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>use formula in cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F6265874-B592-2A4E-97EE-3832097B8F88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>better or worse</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2B6D9E2A-E879-D14C-BFB8-358B8088DD56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">good: children chose better tree
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bad: children chose worse tree</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{EAE6C849-EF30-6541-9E2B-230EA44C963D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>whether or not children spontaneously corrected and said that I was not looking at the right drawing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{949C2489-C550-9749-90F7-D674113AEAFA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>drawing or blocks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{D76FD25C-2A74-C145-A6E6-A9804DCC1146}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">good: children chose better drawing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">bad: children chose worse drawing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>own: children chose own drawing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{6602414C-BDA4-0846-9B4C-DFD9C8695F08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>good: children chose better drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>bad: children chose worse drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>other: children chose own drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{EB61445C-4857-BF4C-8CAD-542CA4AD3C5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>good: children chose better drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>bad: children chose worse drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>other: children chose own drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{BFF00E08-45F2-C649-AD95-D149345AC8BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>good: children chose better drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>bad: children chose worse drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>own: children chose own drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{07BDBB5D-ADF9-9A48-8F88-5DAF5EA16858}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Asaba:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>good: children chose better drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>bad: children chose worse drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>own: children chose own drawing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="268">
   <si>
     <t>count</t>
   </si>
@@ -2011,6 +2774,132 @@
   </si>
   <si>
     <t>bb159</t>
+  </si>
+  <si>
+    <t>yoked_evaluation_best</t>
+  </si>
+  <si>
+    <t>yoked_evaluation_worst</t>
+  </si>
+  <si>
+    <t>ODT_190426_01</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>No other drawing for first child</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>ODT_190503_01</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>ODT_190503_02</t>
+  </si>
+  <si>
+    <t>ODT_190503_03</t>
+  </si>
+  <si>
+    <t>ODT_190503_04</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>ba986</t>
+  </si>
+  <si>
+    <t>ODT_190503_05</t>
+  </si>
+  <si>
+    <t>ODT_190426_02</t>
+  </si>
+  <si>
+    <t>bb066</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ODT_190426_03</t>
+  </si>
+  <si>
+    <t>bb056</t>
+  </si>
+  <si>
+    <t>bb057</t>
+  </si>
+  <si>
+    <t>bb071</t>
+  </si>
+  <si>
+    <t>ba1081</t>
+  </si>
+  <si>
+    <t>ba1182</t>
+  </si>
+  <si>
+    <t>ODT_190529_01</t>
+  </si>
+  <si>
+    <t>bb330</t>
+  </si>
+  <si>
+    <t>ODT_190529_02</t>
+  </si>
+  <si>
+    <t>ODT_190529_03</t>
+  </si>
+  <si>
+    <t>bb010</t>
+  </si>
+  <si>
+    <t>ODT_190531_01</t>
+  </si>
+  <si>
+    <t>ODT_190531_02</t>
+  </si>
+  <si>
+    <t>ODT_190531_03</t>
+  </si>
+  <si>
+    <t>ba1042</t>
+  </si>
+  <si>
+    <t>bb326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t>Child didn’t respond to other evaluation worst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>video_drawing_check</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +3032,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2156,6 +3045,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2479,15 +3369,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="13" max="15" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" customWidth="1"/>
+    <col min="5" max="5" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6875" customWidth="1"/>
+    <col min="13" max="15" width="15.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +3430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2589,7 +3479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2638,7 +3528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2687,7 +3577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2736,7 +3626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2771,7 +3661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2806,7 +3696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2841,7 +3731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2876,7 +3766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2911,7 +3801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2943,7 +3833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2984,26 +3874,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6875" customWidth="1"/>
+    <col min="3" max="3" width="14.1875" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" customWidth="1"/>
+    <col min="17" max="17" width="23.1875" customWidth="1"/>
     <col min="18" max="18" width="21.5" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" customWidth="1"/>
+    <col min="20" max="20" width="18.8125" customWidth="1"/>
+    <col min="22" max="22" width="24.6875" customWidth="1"/>
+    <col min="23" max="24" width="26.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3068,10 +3962,19 @@
         <v>35</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3137,8 +4040,17 @@
       <c r="U2" t="s">
         <v>18</v>
       </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3204,8 +4116,17 @@
       <c r="U3" t="s">
         <v>18</v>
       </c>
+      <c r="V3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3272,10 +4193,19 @@
         <v>19</v>
       </c>
       <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3341,8 +4271,17 @@
       <c r="U5" t="s">
         <v>18</v>
       </c>
+      <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3408,8 +4347,17 @@
       <c r="U6" t="s">
         <v>18</v>
       </c>
+      <c r="V6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3476,8 +4424,17 @@
       <c r="U7" t="s">
         <v>18</v>
       </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3544,8 +4501,17 @@
       <c r="U8" t="s">
         <v>18</v>
       </c>
+      <c r="V8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3612,8 +4578,17 @@
       <c r="U9" t="s">
         <v>18</v>
       </c>
+      <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3680,8 +4655,17 @@
       <c r="U10" t="s">
         <v>18</v>
       </c>
+      <c r="V10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3748,8 +4732,17 @@
       <c r="U11" t="s">
         <v>18</v>
       </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3816,8 +4809,17 @@
       <c r="U12" t="s">
         <v>18</v>
       </c>
+      <c r="V12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3884,10 +4886,19 @@
         <v>19</v>
       </c>
       <c r="V13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3954,8 +4965,17 @@
       <c r="U14" t="s">
         <v>18</v>
       </c>
+      <c r="V14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4022,8 +5042,17 @@
       <c r="U15" t="s">
         <v>18</v>
       </c>
+      <c r="V15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4090,8 +5119,17 @@
       <c r="U16" t="s">
         <v>18</v>
       </c>
+      <c r="V16" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4158,8 +5196,17 @@
       <c r="U17" t="s">
         <v>18</v>
       </c>
+      <c r="V17" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4226,8 +5273,17 @@
       <c r="U18" t="s">
         <v>18</v>
       </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4294,8 +5350,17 @@
       <c r="U19" t="s">
         <v>18</v>
       </c>
+      <c r="V19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4362,8 +5427,17 @@
       <c r="U20" t="s">
         <v>18</v>
       </c>
+      <c r="V20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4431,10 +5505,19 @@
         <v>19</v>
       </c>
       <c r="V21" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4502,10 +5585,19 @@
         <v>19</v>
       </c>
       <c r="V22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4572,8 +5664,17 @@
       <c r="U23" t="s">
         <v>18</v>
       </c>
+      <c r="V23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4639,8 +5740,17 @@
       <c r="U24" t="s">
         <v>18</v>
       </c>
+      <c r="V24" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" t="s">
+        <v>57</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4707,8 +5817,17 @@
       <c r="U25" t="s">
         <v>18</v>
       </c>
+      <c r="V25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4775,8 +5894,17 @@
       <c r="U26" t="s">
         <v>18</v>
       </c>
+      <c r="V26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" t="s">
+        <v>72</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4843,8 +5971,17 @@
       <c r="U27" t="s">
         <v>18</v>
       </c>
+      <c r="V27" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" t="s">
+        <v>57</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4912,10 +6049,19 @@
         <v>18</v>
       </c>
       <c r="V28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W28" t="s">
+        <v>72</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4982,8 +6128,17 @@
       <c r="U29" t="s">
         <v>18</v>
       </c>
+      <c r="V29" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5049,8 +6204,17 @@
       <c r="U30" t="s">
         <v>18</v>
       </c>
+      <c r="V30" t="s">
+        <v>72</v>
+      </c>
+      <c r="W30" t="s">
+        <v>57</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5116,8 +6280,17 @@
       <c r="U31" t="s">
         <v>18</v>
       </c>
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" t="s">
+        <v>60</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5184,10 +6357,19 @@
         <v>19</v>
       </c>
       <c r="V32" t="s">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s">
+        <v>57</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5254,8 +6436,17 @@
       <c r="U33" t="s">
         <v>18</v>
       </c>
+      <c r="V33" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" t="s">
+        <v>72</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5322,8 +6513,17 @@
       <c r="U34" t="s">
         <v>18</v>
       </c>
+      <c r="V34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s">
+        <v>57</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5390,8 +6590,17 @@
       <c r="U35" t="s">
         <v>18</v>
       </c>
+      <c r="V35" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5458,8 +6667,17 @@
       <c r="U36" t="s">
         <v>18</v>
       </c>
+      <c r="V36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W36" t="s">
+        <v>57</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5526,8 +6744,17 @@
       <c r="U37" t="s">
         <v>18</v>
       </c>
+      <c r="V37" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s">
+        <v>72</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5594,8 +6821,17 @@
       <c r="U38" t="s">
         <v>18</v>
       </c>
+      <c r="V38" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" t="s">
+        <v>72</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5662,8 +6898,17 @@
       <c r="U39" t="s">
         <v>18</v>
       </c>
+      <c r="V39" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" t="s">
+        <v>72</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5730,8 +6975,17 @@
       <c r="U40" t="s">
         <v>18</v>
       </c>
+      <c r="V40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W40" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5797,8 +7051,17 @@
       <c r="U41" t="s">
         <v>18</v>
       </c>
+      <c r="V41" t="s">
+        <v>39</v>
+      </c>
+      <c r="W41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5864,8 +7127,17 @@
       <c r="U42" t="s">
         <v>18</v>
       </c>
+      <c r="V42" t="s">
+        <v>39</v>
+      </c>
+      <c r="W42" t="s">
+        <v>72</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5931,8 +7203,17 @@
       <c r="U43" t="s">
         <v>18</v>
       </c>
+      <c r="V43" t="s">
+        <v>39</v>
+      </c>
+      <c r="W43" t="s">
+        <v>72</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5998,8 +7279,17 @@
       <c r="U44" t="s">
         <v>18</v>
       </c>
+      <c r="V44" t="s">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s">
+        <v>72</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6066,10 +7356,19 @@
         <v>18</v>
       </c>
       <c r="V45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s">
+        <v>57</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6136,10 +7435,19 @@
         <v>18</v>
       </c>
       <c r="V46" t="s">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6205,8 +7513,17 @@
       <c r="U47" t="s">
         <v>18</v>
       </c>
+      <c r="V47" t="s">
+        <v>39</v>
+      </c>
+      <c r="W47" t="s">
+        <v>72</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6272,8 +7589,17 @@
       <c r="U48" t="s">
         <v>18</v>
       </c>
+      <c r="V48" t="s">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s">
+        <v>57</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6339,8 +7665,17 @@
       <c r="U49" t="s">
         <v>18</v>
       </c>
+      <c r="V49" t="s">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s">
+        <v>72</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6406,8 +7741,17 @@
       <c r="U50" t="s">
         <v>18</v>
       </c>
+      <c r="V50" t="s">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s">
+        <v>72</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6473,8 +7817,17 @@
       <c r="U51" t="s">
         <v>18</v>
       </c>
+      <c r="V51" t="s">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s">
+        <v>57</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6540,8 +7893,17 @@
       <c r="U52" t="s">
         <v>18</v>
       </c>
+      <c r="V52" t="s">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s">
+        <v>72</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>53</v>
       </c>
@@ -6607,8 +7969,17 @@
       <c r="U53" t="s">
         <v>18</v>
       </c>
+      <c r="V53" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s">
+        <v>57</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>54</v>
       </c>
@@ -6674,8 +8045,17 @@
       <c r="U54" t="s">
         <v>18</v>
       </c>
+      <c r="V54" t="s">
+        <v>39</v>
+      </c>
+      <c r="W54" t="s">
+        <v>57</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>55</v>
       </c>
@@ -6741,8 +8121,17 @@
       <c r="U55" t="s">
         <v>18</v>
       </c>
+      <c r="V55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W55" t="s">
+        <v>72</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>56</v>
       </c>
@@ -6809,10 +8198,19 @@
         <v>18</v>
       </c>
       <c r="V56" t="s">
+        <v>39</v>
+      </c>
+      <c r="W56" t="s">
+        <v>72</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>57</v>
       </c>
@@ -6855,7 +8253,7 @@
         <v>19</v>
       </c>
       <c r="N57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O57" t="s">
         <v>57</v>
@@ -6878,8 +8276,17 @@
       <c r="U57" t="s">
         <v>18</v>
       </c>
+      <c r="V57" t="s">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s">
+        <v>57</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>58</v>
       </c>
@@ -6945,8 +8352,17 @@
       <c r="U58" t="s">
         <v>18</v>
       </c>
+      <c r="V58" t="s">
+        <v>39</v>
+      </c>
+      <c r="W58" t="s">
+        <v>57</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>59</v>
       </c>
@@ -7012,8 +8428,17 @@
       <c r="U59" t="s">
         <v>18</v>
       </c>
+      <c r="V59" t="s">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s">
+        <v>57</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>60</v>
       </c>
@@ -7080,10 +8505,19 @@
         <v>19</v>
       </c>
       <c r="V60" t="s">
+        <v>39</v>
+      </c>
+      <c r="W60" t="s">
+        <v>72</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>61</v>
       </c>
@@ -7150,10 +8584,19 @@
         <v>19</v>
       </c>
       <c r="V61" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s">
+        <v>57</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>62</v>
       </c>
@@ -7220,10 +8663,19 @@
         <v>18</v>
       </c>
       <c r="V62" t="s">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s">
+        <v>57</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>63</v>
       </c>
@@ -7288,8 +8740,17 @@
       <c r="U63" t="s">
         <v>18</v>
       </c>
+      <c r="V63" t="s">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s">
+        <v>72</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>64</v>
       </c>
@@ -7355,8 +8816,17 @@
       <c r="U64" t="s">
         <v>18</v>
       </c>
+      <c r="V64" t="s">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s">
+        <v>72</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>65</v>
       </c>
@@ -7422,8 +8892,17 @@
       <c r="U65" t="s">
         <v>18</v>
       </c>
+      <c r="V65" t="s">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s">
+        <v>72</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>66</v>
       </c>
@@ -7489,8 +8968,17 @@
       <c r="U66" t="s">
         <v>18</v>
       </c>
+      <c r="V66" t="s">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s">
+        <v>72</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>67</v>
       </c>
@@ -7556,8 +9044,17 @@
       <c r="U67" t="s">
         <v>18</v>
       </c>
+      <c r="V67" t="s">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s">
+        <v>57</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>68</v>
       </c>
@@ -7623,8 +9120,17 @@
       <c r="U68" t="s">
         <v>18</v>
       </c>
+      <c r="V68" t="s">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s">
+        <v>72</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>69</v>
       </c>
@@ -7690,8 +9196,17 @@
       <c r="U69" t="s">
         <v>18</v>
       </c>
+      <c r="V69" t="s">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s">
+        <v>72</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>70</v>
       </c>
@@ -7757,8 +9272,17 @@
       <c r="U70" t="s">
         <v>18</v>
       </c>
+      <c r="V70" t="s">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s">
+        <v>72</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>71</v>
       </c>
@@ -7825,10 +9349,19 @@
         <v>18</v>
       </c>
       <c r="V71" t="s">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s">
+        <v>72</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>73</v>
       </c>
@@ -7894,8 +9427,17 @@
       <c r="U72" t="s">
         <v>18</v>
       </c>
+      <c r="V72" t="s">
+        <v>72</v>
+      </c>
+      <c r="W72" t="s">
+        <v>57</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>74</v>
       </c>
@@ -7918,11 +9460,11 @@
         <v>42168</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H78" si="13">(F73-G73)/365.25</f>
+        <f t="shared" ref="H73:H84" si="13">(F73-G73)/365.25</f>
         <v>3.7891854893908281</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:I78" si="14">ROUNDDOWN(H73,0)</f>
+        <f t="shared" ref="I73:I84" si="14">ROUNDDOWN(H73,0)</f>
         <v>3</v>
       </c>
       <c r="J73" t="s">
@@ -7961,8 +9503,17 @@
       <c r="U73" t="s">
         <v>18</v>
       </c>
+      <c r="V73" t="s">
+        <v>60</v>
+      </c>
+      <c r="W73" t="s">
+        <v>60</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>75</v>
       </c>
@@ -8029,10 +9580,19 @@
         <v>19</v>
       </c>
       <c r="V74" t="s">
+        <v>72</v>
+      </c>
+      <c r="W74" t="s">
+        <v>72</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>76</v>
       </c>
@@ -8098,8 +9658,17 @@
       <c r="U75" t="s">
         <v>18</v>
       </c>
+      <c r="V75" t="s">
+        <v>57</v>
+      </c>
+      <c r="W75" t="s">
+        <v>39</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>77</v>
       </c>
@@ -8165,8 +9734,17 @@
       <c r="U76" t="s">
         <v>18</v>
       </c>
+      <c r="V76" t="s">
+        <v>39</v>
+      </c>
+      <c r="W76" t="s">
+        <v>57</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>78</v>
       </c>
@@ -8232,8 +9810,17 @@
       <c r="U77" t="s">
         <v>18</v>
       </c>
+      <c r="V77" t="s">
+        <v>39</v>
+      </c>
+      <c r="W77" t="s">
+        <v>57</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>79</v>
       </c>
@@ -8299,9 +9886,1033 @@
       <c r="U78" t="s">
         <v>18</v>
       </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A79">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" t="s">
+        <v>258</v>
+      </c>
+      <c r="F79" s="1">
+        <v>43614</v>
+      </c>
+      <c r="G79" s="1">
+        <v>42296</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="13"/>
+        <v>3.6084873374401094</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s">
+        <v>55</v>
+      </c>
+      <c r="L79" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" t="s">
+        <v>19</v>
+      </c>
+      <c r="N79" t="s">
+        <v>15</v>
+      </c>
+      <c r="O79" t="s">
+        <v>39</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>39</v>
+      </c>
+      <c r="R79" t="s">
+        <v>72</v>
+      </c>
+      <c r="S79" t="s">
+        <v>39</v>
+      </c>
+      <c r="T79" t="s">
+        <v>58</v>
+      </c>
+      <c r="U79" t="s">
+        <v>18</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A80">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" t="s">
+        <v>255</v>
+      </c>
+      <c r="F80" s="1">
+        <v>43614</v>
+      </c>
+      <c r="G80" s="1">
+        <v>42185</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="13"/>
+        <v>3.9123887748117729</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" t="s">
+        <v>39</v>
+      </c>
+      <c r="M80" t="s">
+        <v>264</v>
+      </c>
+      <c r="N80" t="s">
+        <v>15</v>
+      </c>
+      <c r="O80" t="s">
+        <v>39</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>39</v>
+      </c>
+      <c r="R80" t="s">
+        <v>72</v>
+      </c>
+      <c r="S80" t="s">
+        <v>39</v>
+      </c>
+      <c r="T80" t="s">
+        <v>57</v>
+      </c>
+      <c r="U80" t="s">
+        <v>18</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A81">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" s="1">
+        <v>43614</v>
+      </c>
+      <c r="G81" s="1">
+        <v>42243</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="13"/>
+        <v>3.7535934291581108</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J81" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s">
+        <v>55</v>
+      </c>
+      <c r="L81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M81" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81" t="s">
+        <v>15</v>
+      </c>
+      <c r="O81" t="s">
+        <v>39</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>72</v>
+      </c>
+      <c r="R81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S81" t="s">
+        <v>58</v>
+      </c>
+      <c r="T81" t="s">
+        <v>57</v>
+      </c>
+      <c r="U81" t="s">
+        <v>18</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A82">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="1">
+        <v>43616</v>
+      </c>
+      <c r="G82" s="1">
+        <v>42185</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="13"/>
+        <v>3.9178644763860371</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s">
+        <v>55</v>
+      </c>
+      <c r="L82" t="s">
+        <v>39</v>
+      </c>
+      <c r="M82" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82" t="s">
+        <v>15</v>
+      </c>
+      <c r="O82" t="s">
+        <v>39</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>72</v>
+      </c>
+      <c r="R82" t="s">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s">
+        <v>39</v>
+      </c>
+      <c r="T82" t="s">
+        <v>57</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A83">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" s="1">
+        <v>43616</v>
+      </c>
+      <c r="G83" s="1">
+        <v>42187</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="13"/>
+        <v>3.9123887748117729</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" t="s">
+        <v>55</v>
+      </c>
+      <c r="L83" t="s">
+        <v>39</v>
+      </c>
+      <c r="M83" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" t="s">
+        <v>15</v>
+      </c>
+      <c r="O83" t="s">
+        <v>39</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>39</v>
+      </c>
+      <c r="R83" t="s">
+        <v>72</v>
+      </c>
+      <c r="S83" t="s">
+        <v>58</v>
+      </c>
+      <c r="T83" t="s">
+        <v>57</v>
+      </c>
+      <c r="U83" t="s">
+        <v>18</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A84">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="1">
+        <v>43616</v>
+      </c>
+      <c r="G84" s="1">
+        <v>42249</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="13"/>
+        <v>3.7426420260095825</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" t="s">
+        <v>39</v>
+      </c>
+      <c r="M84" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" t="s">
+        <v>16</v>
+      </c>
+      <c r="O84" t="s">
+        <v>39</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>72</v>
+      </c>
+      <c r="R84" t="s">
+        <v>57</v>
+      </c>
+      <c r="S84" t="s">
+        <v>39</v>
+      </c>
+      <c r="T84" t="s">
+        <v>57</v>
+      </c>
+      <c r="U84" t="s">
+        <v>266</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Y32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A49595-2C32-E24B-A6EE-2DA3E10DD98C}">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43581</v>
+      </c>
+      <c r="G2" s="1">
+        <v>41873</v>
+      </c>
+      <c r="H2" s="12">
+        <f>(F2-G2)/365.25</f>
+        <v>4.6762491444216288</v>
+      </c>
+      <c r="I2">
+        <f>ROUNDDOWN(H2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43581</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42014</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="0">(F3-G3)/365.25</f>
+        <v>4.2902121834360027</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="1">ROUNDDOWN(H3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43581</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42014</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4.2902121834360027</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N4" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43588</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41824</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4.8295687885010263</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" t="s">
+        <v>235</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43588</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42016</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4.3039014373716631</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P6" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>237</v>
+      </c>
+      <c r="R6" t="s">
+        <v>237</v>
+      </c>
+      <c r="S6" t="s">
+        <v>237</v>
+      </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43588</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42173</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.8740588637919235</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>237</v>
+      </c>
+      <c r="R7" t="s">
+        <v>237</v>
+      </c>
+      <c r="S7" t="s">
+        <v>237</v>
+      </c>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43588</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41584</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>5.4866529774127306</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N8" t="s">
+        <v>232</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43588</v>
+      </c>
+      <c r="G9" s="1">
+        <v>41955</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.470910335386721</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N9" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
